--- a/提单号识别船东/船东单号规则1.xlsx
+++ b/提单号识别船东/船东单号规则1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="11625"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>船东</t>
   </si>
@@ -171,7 +171,7 @@
     <t>HLCU</t>
   </si>
   <si>
-    <t>8位纯数字</t>
+    <t xml:space="preserve">8位纯数字  </t>
   </si>
   <si>
     <t>IAL</t>
@@ -210,7 +210,24 @@
     <t>MCC</t>
   </si>
   <si>
-    <t>9位纯数字或MCB+6位纯数字</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9位纯数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或MCB+6位纯数字</t>
+    </r>
   </si>
   <si>
     <t>MSC</t>
@@ -297,7 +314,24 @@
     <t>SAF</t>
   </si>
   <si>
-    <t>9位纯数字或者9位英文数字混合</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9位纯数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者9位英文数字混合</t>
+    </r>
   </si>
   <si>
     <t>9位英文数字混合</t>
@@ -364,6 +398,9 @@
   </si>
   <si>
     <t>3位英文+5位数字或3位英文+6位数字或3位英文+7位数字或3位英文+8位数字或者3位英文+9位数字</t>
+  </si>
+  <si>
+    <t>总共 44家有规则匹配的船东</t>
   </si>
 </sst>
 </file>
@@ -371,12 +408,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +430,62 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +500,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -414,22 +536,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,21 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -466,74 +583,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -562,91 +617,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,90 +798,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,6 +808,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -776,17 +855,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,21 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,9 +900,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +916,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,137 +928,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,17 +1077,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1382,10 +1455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
@@ -1426,15 +1499,15 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1443,10 +1516,10 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1457,10 +1530,10 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
@@ -1472,15 +1545,15 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1494,10 +1567,10 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1508,10 +1581,10 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1520,10 +1593,10 @@
       </c>
     </row>
     <row r="10" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1537,19 +1610,19 @@
       </c>
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1558,19 +1631,19 @@
       </c>
     </row>
     <row r="13" s="3" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1584,14 +1657,14 @@
       </c>
     </row>
     <row r="15" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1599,16 +1672,16 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1619,16 +1692,16 @@
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1636,24 +1709,24 @@
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1667,16 +1740,16 @@
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1684,10 +1757,10 @@
       </c>
     </row>
     <row r="22" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
@@ -1696,20 +1769,20 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -1717,16 +1790,16 @@
       </c>
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1749,10 +1822,10 @@
       </c>
     </row>
     <row r="27" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1763,11 +1836,11 @@
       </c>
     </row>
     <row r="28" s="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1775,25 +1848,25 @@
       </c>
     </row>
     <row r="29" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1810,11 +1883,11 @@
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1842,7 +1915,7 @@
       <c r="C34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="14" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1915,7 +1988,7 @@
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1985,7 +2058,7 @@
       <c r="C44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -2046,11 +2119,16 @@
       <c r="B49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="13" t="s">
         <v>114</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
